--- a/StructureDefinition-unidad-clinica-origen.xlsx
+++ b/StructureDefinition-unidad-clinica-origen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unidad-clinica-origen.xlsx
+++ b/StructureDefinition-unidad-clinica-origen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,6 +139,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -168,11 +172,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -188,10 +202,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -214,8 +224,8 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/unidad-clinica-hlf)
-</t>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -543,40 +553,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -676,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -684,10 +694,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -698,7 +708,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -710,13 +720,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -767,41 +777,41 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -813,15 +823,17 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
         <v>37</v>
@@ -858,19 +870,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -882,18 +894,18 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -901,10 +913,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -916,16 +928,16 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -975,13 +987,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -990,15 +1002,15 @@
         <v>37</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1009,7 +1021,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -1021,13 +1033,13 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1078,22 +1090,22 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
